--- a/image/substancenucleicacid.xlsx
+++ b/image/substancenucleicacid.xlsx
@@ -727,42 +727,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.91796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="47.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/substancenucleicacid.xlsx
+++ b/image/substancenucleicacid.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="183">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -353,10 +353,6 @@
   </si>
   <si>
     <t>SubstanceNucleicAcid.areaOfHybridisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>The area of hybridisation shall be described if applicable for double stranded RNA or DNA. The number associated with the subunit followed by the number associated to the residue shall be specified in increasing order. The underscore “” shall be used as separator as follows: “Subunitnumber Residue”</t>
@@ -727,42 +723,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.6484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="47.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.91796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2016,13 +2012,13 @@
         <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2093,7 +2089,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2119,10 +2115,10 @@
         <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2173,7 +2169,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -2193,7 +2189,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2216,13 +2212,13 @@
         <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2273,7 +2269,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2285,7 +2281,7 @@
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>37</v>
@@ -2293,7 +2289,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2316,13 +2312,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2373,27 +2369,27 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2422,7 +2418,7 @@
         <v>91</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>93</v>
@@ -2475,7 +2471,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2490,16 +2486,16 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2521,10 +2517,10 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>93</v>
@@ -2579,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2599,7 +2595,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2625,10 +2621,10 @@
         <v>105</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2679,7 +2675,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2699,7 +2695,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2722,13 +2718,13 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2779,7 +2775,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2799,7 +2795,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2825,10 +2821,10 @@
         <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2879,7 +2875,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -2899,7 +2895,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2922,13 +2918,13 @@
         <v>46</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2979,7 +2975,7 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
@@ -2999,7 +2995,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3025,10 +3021,10 @@
         <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3079,7 +3075,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
@@ -3099,7 +3095,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3125,10 +3121,10 @@
         <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3179,7 +3175,7 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
@@ -3199,7 +3195,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3222,13 +3218,13 @@
         <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3279,7 +3275,7 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
@@ -3291,7 +3287,7 @@
         <v>37</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>37</v>
@@ -3299,7 +3295,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3322,13 +3318,13 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3379,27 +3375,27 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3428,7 +3424,7 @@
         <v>91</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>93</v>
@@ -3481,7 +3477,7 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
@@ -3496,16 +3492,16 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3527,10 +3523,10 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>93</v>
@@ -3585,7 +3581,7 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>38</v>
@@ -3605,7 +3601,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3628,13 +3624,13 @@
         <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3685,7 +3681,7 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>38</v>
@@ -3705,7 +3701,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3728,13 +3724,13 @@
         <v>46</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3785,7 +3781,7 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>38</v>
@@ -3805,7 +3801,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3828,13 +3824,13 @@
         <v>46</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3885,7 +3881,7 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
@@ -3905,7 +3901,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3928,13 +3924,13 @@
         <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3985,7 +3981,7 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>38</v>
@@ -4005,7 +4001,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4028,13 +4024,13 @@
         <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4085,7 +4081,7 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>38</v>
@@ -4097,7 +4093,7 @@
         <v>37</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>37</v>
@@ -4105,7 +4101,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4128,13 +4124,13 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4185,27 +4181,27 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4234,7 +4230,7 @@
         <v>91</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>93</v>
@@ -4287,7 +4283,7 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
@@ -4302,16 +4298,16 @@
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4333,10 +4329,10 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>93</v>
@@ -4391,7 +4387,7 @@
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>38</v>
@@ -4411,7 +4407,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4434,13 +4430,13 @@
         <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4491,7 +4487,7 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>38</v>
@@ -4511,7 +4507,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4534,13 +4530,13 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4591,7 +4587,7 @@
         <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>38</v>
@@ -4611,7 +4607,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4634,13 +4630,13 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4691,7 +4687,7 @@
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>38</v>
